--- a/data/topology_atceFB.xlsx
+++ b/data/topology_atceFB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nordicrsc-my.sharepoint.com/personal/jlm_nordic-rcc_net/Documents/Dokumenter/topology/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="421" documentId="8_{CD18796C-67F4-4BE3-8A85-DF1600E63824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99EEC10B-49D1-4F79-9F20-AD327B91D169}"/>
+  <xr:revisionPtr revIDLastSave="432" documentId="8_{CD18796C-67F4-4BE3-8A85-DF1600E63824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F207AC1-DF2F-4117-9A9B-FBA784BD55F1}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5490" windowWidth="38640" windowHeight="21120" xr2:uid="{4FBD8BC6-F0E3-4971-A871-8AE8F24F6C5A}"/>
+    <workbookView xWindow="28680" yWindow="-5490" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{4FBD8BC6-F0E3-4971-A871-8AE8F24F6C5A}"/>
   </bookViews>
   <sheets>
     <sheet name="metaData" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="186">
   <si>
     <t>DK1</t>
   </si>
@@ -592,6 +592,12 @@
   </si>
   <si>
     <t>topology_atceFB</t>
+  </si>
+  <si>
+    <t>topologyType</t>
+  </si>
+  <si>
+    <t>flowBased</t>
   </si>
 </sst>
 </file>
@@ -1026,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7E93A-1644-4964-AD40-737466C83435}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1036,6 +1042,7 @@
     <col min="2" max="2" width="19" style="6" customWidth="1"/>
     <col min="3" max="3" width="19" style="3" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -1051,6 +1058,9 @@
       <c r="D1" t="s">
         <v>164</v>
       </c>
+      <c r="E1" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -1064,6 +1074,9 @@
       </c>
       <c r="D2" s="2" t="s">
         <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1650,8 +1663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6106AD-B8E1-4460-AC6F-62DB62A8D837}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1048574" sqref="O1048574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2717,7 +2730,7 @@
         <v>145</v>
       </c>
       <c r="E53" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="b">
         <v>1</v>
@@ -2757,7 +2770,7 @@
         <v>145</v>
       </c>
       <c r="E55" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" t="b">
         <v>1</v>
@@ -2817,7 +2830,7 @@
         <v>145</v>
       </c>
       <c r="E58" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="b">
         <v>1</v>
@@ -2857,7 +2870,7 @@
         <v>145</v>
       </c>
       <c r="E60" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="b">
         <v>1</v>
@@ -3104,7 +3117,7 @@
   <cols>
     <col min="1" max="1" width="18.453125" customWidth="1"/>
     <col min="2" max="2" width="55.26953125" customWidth="1"/>
-    <col min="3" max="3" width="17.36328125" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>

--- a/data/topology_atceFB.xlsx
+++ b/data/topology_atceFB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nordicrsc-my.sharepoint.com/personal/jlm_nordic-rcc_net/Documents/Dokumenter/topology/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="432" documentId="8_{CD18796C-67F4-4BE3-8A85-DF1600E63824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F207AC1-DF2F-4117-9A9B-FBA784BD55F1}"/>
+  <xr:revisionPtr revIDLastSave="434" documentId="8_{CD18796C-67F4-4BE3-8A85-DF1600E63824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0A00AA1-07A7-4805-9FAB-DD01EF15B967}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5490" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{4FBD8BC6-F0E3-4971-A871-8AE8F24F6C5A}"/>
+    <workbookView xWindow="51090" yWindow="3460" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{4FBD8BC6-F0E3-4971-A871-8AE8F24F6C5A}"/>
   </bookViews>
   <sheets>
     <sheet name="metaData" sheetId="4" r:id="rId1"/>
@@ -585,9 +585,6 @@
     <t>explicitQPRE</t>
   </si>
   <si>
-    <t>2024-07-12</t>
-  </si>
-  <si>
     <t>intradayBorder</t>
   </si>
   <si>
@@ -598,6 +595,9 @@
   </si>
   <si>
     <t>flowBased</t>
+  </si>
+  <si>
+    <t>2024-12-13</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1033,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1059,24 +1059,24 @@
         <v>164</v>
       </c>
       <c r="E1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B2" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1094,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA469EBF-F41B-473B-84E7-89BEDA1B03E3}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1663,7 +1663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6106AD-B8E1-4460-AC6F-62DB62A8D837}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O1048574" sqref="O1048574"/>
     </sheetView>
   </sheetViews>
@@ -1693,7 +1693,7 @@
         <v>179</v>
       </c>
       <c r="F1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -3110,7 +3110,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/topology_atceFB.xlsx
+++ b/data/topology_atceFB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nordicrsc-my.sharepoint.com/personal/jlm_nordic-rcc_net/Documents/Dokumenter/topology/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="434" documentId="8_{CD18796C-67F4-4BE3-8A85-DF1600E63824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0A00AA1-07A7-4805-9FAB-DD01EF15B967}"/>
+  <xr:revisionPtr revIDLastSave="443" documentId="8_{CD18796C-67F4-4BE3-8A85-DF1600E63824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8520456A-40E6-43F3-BF43-2C014D70C67C}"/>
   <bookViews>
-    <workbookView xWindow="51090" yWindow="3460" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{4FBD8BC6-F0E3-4971-A871-8AE8F24F6C5A}"/>
+    <workbookView xWindow="28680" yWindow="-5490" windowWidth="38640" windowHeight="21120" xr2:uid="{4FBD8BC6-F0E3-4971-A871-8AE8F24F6C5A}"/>
   </bookViews>
   <sheets>
     <sheet name="metaData" sheetId="4" r:id="rId1"/>
@@ -597,7 +597,7 @@
     <t>flowBased</t>
   </si>
   <si>
-    <t>2024-12-13</t>
+    <t>2025-03-14</t>
   </si>
 </sst>
 </file>
@@ -1032,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7E93A-1644-4964-AD40-737466C83435}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1067,7 +1067,7 @@
         <v>182</v>
       </c>
       <c r="B2" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>185</v>
@@ -1094,7 +1094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA469EBF-F41B-473B-84E7-89BEDA1B03E3}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1663,8 +1663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6106AD-B8E1-4460-AC6F-62DB62A8D837}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1048574" sqref="O1048574"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3110,7 +3110,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3258,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">

--- a/data/topology_atceFB.xlsx
+++ b/data/topology_atceFB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nordicrsc-my.sharepoint.com/personal/jlm_nordic-rcc_net/Documents/Dokumenter/topology/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="443" documentId="8_{CD18796C-67F4-4BE3-8A85-DF1600E63824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8520456A-40E6-43F3-BF43-2C014D70C67C}"/>
+  <xr:revisionPtr revIDLastSave="451" documentId="8_{CD18796C-67F4-4BE3-8A85-DF1600E63824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3575984D-B002-4FFE-8661-7D79453FDB20}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5490" windowWidth="38640" windowHeight="21120" xr2:uid="{4FBD8BC6-F0E3-4971-A871-8AE8F24F6C5A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{4FBD8BC6-F0E3-4971-A871-8AE8F24F6C5A}"/>
   </bookViews>
   <sheets>
     <sheet name="metaData" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="187">
   <si>
     <t>DK1</t>
   </si>
@@ -597,7 +597,10 @@
     <t>flowBased</t>
   </si>
   <si>
-    <t>2025-03-14</t>
+    <t>MaxAtc</t>
+  </si>
+  <si>
+    <t>2025-06-10</t>
   </si>
 </sst>
 </file>
@@ -692,18 +695,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{762A1B0B-4C71-437F-A96E-E34895038CD6}" name="Table2" displayName="Table2" ref="A1:F1048571" totalsRowShown="0">
-  <autoFilter ref="A1:F1048571" xr:uid="{762A1B0B-4C71-437F-A96E-E34895038CD6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{762A1B0B-4C71-437F-A96E-E34895038CD6}" name="Table2" displayName="Table2" ref="A1:G1048571" totalsRowShown="0">
+  <autoFilter ref="A1:G1048571" xr:uid="{762A1B0B-4C71-437F-A96E-E34895038CD6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F71">
     <sortCondition ref="A1:A1048571"/>
   </sortState>
-  <tableColumns count="6">
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{FE80F9A4-CBC2-4470-9B60-92F7DC9351BC}" name="name"/>
     <tableColumn id="2" xr3:uid="{14313558-DEB6-4F0E-A55A-CB091CBA06C6}" name="from"/>
     <tableColumn id="3" xr3:uid="{F67C11A2-23E0-4396-9B98-307BED68B30B}" name="to"/>
     <tableColumn id="6" xr3:uid="{5A6128E5-CEBB-4021-B671-B6CBB69D6820}" name="type"/>
     <tableColumn id="5" xr3:uid="{E2093FFC-8CA0-452E-B6F5-F8DF709F11BF}" name="weight" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{A0A06792-D8D9-41C5-9767-F0513476B6B8}" name="intradayBorder"/>
+    <tableColumn id="7" xr3:uid="{07FD34FD-5F51-49DD-9C8D-56B971545AD2}" name="MaxAtc"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1033,19 +1037,19 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="19" style="6" customWidth="1"/>
     <col min="3" max="3" width="19" style="3" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -1062,15 +1066,15 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>182</v>
       </c>
       <c r="B2" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>71</v>
@@ -1079,7 +1083,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F3" s="1"/>
     </row>
   </sheetData>
@@ -1098,16 +1102,16 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="18.26953125" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -1124,7 +1128,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +1145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1158,7 +1162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1175,7 +1179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1192,7 +1196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1209,7 +1213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1226,7 +1230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1243,7 +1247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1260,7 +1264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1277,7 +1281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1294,7 +1298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1311,7 +1315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1328,7 +1332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1345,7 +1349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1362,7 +1366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1379,7 +1383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1396,7 +1400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1413,7 +1417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -1430,7 +1434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1447,7 +1451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1464,7 +1468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -1481,7 +1485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -1498,7 +1502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -1515,7 +1519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1532,7 +1536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -1549,7 +1553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1566,7 +1570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -1583,7 +1587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -1600,7 +1604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -1617,7 +1621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -1634,7 +1638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -1661,22 +1665,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6106AD-B8E1-4460-AC6F-62DB62A8D837}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:XFD60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" customWidth="1"/>
-    <col min="3" max="4" width="12.54296875" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.1796875" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -1695,8 +1699,11 @@
       <c r="F1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -1715,8 +1722,11 @@
       <c r="F2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -1735,8 +1745,11 @@
       <c r="F3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -1755,8 +1768,11 @@
       <c r="F4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -1775,8 +1791,11 @@
       <c r="F5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -1795,8 +1814,11 @@
       <c r="F6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -1815,8 +1837,11 @@
       <c r="F7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -1835,8 +1860,11 @@
       <c r="F8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>79</v>
       </c>
@@ -1855,8 +1883,11 @@
       <c r="F9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -1875,8 +1906,11 @@
       <c r="F10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -1895,8 +1929,11 @@
       <c r="F11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -1915,8 +1952,11 @@
       <c r="F12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>86</v>
       </c>
@@ -1935,8 +1975,11 @@
       <c r="F13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>85</v>
       </c>
@@ -1955,8 +1998,11 @@
       <c r="F14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G14">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>87</v>
       </c>
@@ -1975,8 +2021,11 @@
       <c r="F15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G15">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -1995,8 +2044,11 @@
       <c r="F16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>90</v>
       </c>
@@ -2015,8 +2067,11 @@
       <c r="F17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>92</v>
       </c>
@@ -2035,8 +2090,11 @@
       <c r="F18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -2055,8 +2113,11 @@
       <c r="F19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>93</v>
       </c>
@@ -2075,8 +2136,11 @@
       <c r="F20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G20">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>94</v>
       </c>
@@ -2095,8 +2159,11 @@
       <c r="F21" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G21">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>96</v>
       </c>
@@ -2115,8 +2182,11 @@
       <c r="F22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G22">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>98</v>
       </c>
@@ -2135,8 +2205,11 @@
       <c r="F23" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G23">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -2155,8 +2228,11 @@
       <c r="F24" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G24">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -2175,8 +2251,11 @@
       <c r="F25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G25">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -2195,8 +2274,11 @@
       <c r="F26" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G26">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>106</v>
       </c>
@@ -2215,8 +2297,11 @@
       <c r="F27" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G27">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>108</v>
       </c>
@@ -2235,8 +2320,11 @@
       <c r="F28" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G28">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -2255,8 +2343,11 @@
       <c r="F29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G29">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>99</v>
       </c>
@@ -2275,8 +2366,11 @@
       <c r="F30" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G30">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>107</v>
       </c>
@@ -2295,8 +2389,11 @@
       <c r="F31" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G31">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>109</v>
       </c>
@@ -2315,8 +2412,11 @@
       <c r="F32" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G32">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>111</v>
       </c>
@@ -2335,8 +2435,11 @@
       <c r="F33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G33">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>112</v>
       </c>
@@ -2355,8 +2458,11 @@
       <c r="F34" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G34">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -2375,8 +2481,11 @@
       <c r="F35" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G35">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>114</v>
       </c>
@@ -2395,8 +2504,11 @@
       <c r="F36" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G36">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>116</v>
       </c>
@@ -2415,8 +2527,11 @@
       <c r="F37" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G37">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>118</v>
       </c>
@@ -2435,8 +2550,11 @@
       <c r="F38" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G38">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>95</v>
       </c>
@@ -2455,8 +2573,11 @@
       <c r="F39" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G39">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>115</v>
       </c>
@@ -2475,8 +2596,11 @@
       <c r="F40" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G40">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>120</v>
       </c>
@@ -2495,8 +2619,11 @@
       <c r="F41" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G41">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>122</v>
       </c>
@@ -2515,8 +2642,11 @@
       <c r="F42" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G42">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>101</v>
       </c>
@@ -2535,8 +2665,11 @@
       <c r="F43" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G43">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>113</v>
       </c>
@@ -2555,8 +2688,11 @@
       <c r="F44" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G44">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>117</v>
       </c>
@@ -2575,8 +2711,11 @@
       <c r="F45" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G45">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>97</v>
       </c>
@@ -2595,8 +2734,11 @@
       <c r="F46" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G46">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>121</v>
       </c>
@@ -2615,8 +2757,11 @@
       <c r="F47" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G47">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>124</v>
       </c>
@@ -2635,8 +2780,11 @@
       <c r="F48" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G48">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>119</v>
       </c>
@@ -2655,8 +2803,11 @@
       <c r="F49" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G49">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>123</v>
       </c>
@@ -2675,8 +2826,11 @@
       <c r="F50" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G50">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>125</v>
       </c>
@@ -2695,8 +2849,11 @@
       <c r="F51" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G51">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>126</v>
       </c>
@@ -2715,8 +2872,11 @@
       <c r="F52" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G52">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>128</v>
       </c>
@@ -2735,8 +2895,11 @@
       <c r="F53" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G53">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>130</v>
       </c>
@@ -2755,8 +2918,11 @@
       <c r="F54" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G54">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>132</v>
       </c>
@@ -2775,8 +2941,11 @@
       <c r="F55" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G55">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>105</v>
       </c>
@@ -2795,8 +2964,11 @@
       <c r="F56" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G56">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>127</v>
       </c>
@@ -2815,8 +2987,11 @@
       <c r="F57" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G57">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>129</v>
       </c>
@@ -2835,8 +3010,11 @@
       <c r="F58" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G58">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>131</v>
       </c>
@@ -2855,8 +3033,11 @@
       <c r="F59" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G59">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>133</v>
       </c>
@@ -2875,8 +3056,11 @@
       <c r="F60" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G60">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>134</v>
       </c>
@@ -2895,8 +3079,11 @@
       <c r="F61" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G61">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>136</v>
       </c>
@@ -2915,8 +3102,11 @@
       <c r="F62" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G62">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>138</v>
       </c>
@@ -2935,8 +3125,11 @@
       <c r="F63" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G63">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>140</v>
       </c>
@@ -2955,8 +3148,11 @@
       <c r="F64" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G64">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>142</v>
       </c>
@@ -2975,8 +3171,11 @@
       <c r="F65" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G65">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>89</v>
       </c>
@@ -2995,8 +3194,11 @@
       <c r="F66" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G66">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>135</v>
       </c>
@@ -3015,8 +3217,11 @@
       <c r="F67" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G67">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>137</v>
       </c>
@@ -3035,8 +3240,11 @@
       <c r="F68" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G68">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>139</v>
       </c>
@@ -3055,8 +3263,11 @@
       <c r="F69" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G69">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>141</v>
       </c>
@@ -3075,8 +3286,11 @@
       <c r="F70" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G70">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>143</v>
       </c>
@@ -3094,6 +3308,9 @@
       </c>
       <c r="F71" t="b">
         <v>1</v>
+      </c>
+      <c r="G71">
+        <v>99999</v>
       </c>
     </row>
   </sheetData>
@@ -3110,18 +3327,18 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.453125" customWidth="1"/>
-    <col min="2" max="2" width="55.26953125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="55.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -3135,7 +3352,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>148</v>
       </c>
@@ -3149,7 +3366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>149</v>
       </c>
@@ -3163,7 +3380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>150</v>
       </c>
@@ -3177,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>151</v>
       </c>
@@ -3191,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>152</v>
       </c>
@@ -3205,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>153</v>
       </c>
@@ -3219,7 +3436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>154</v>
       </c>
@@ -3233,7 +3450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>155</v>
       </c>
@@ -3247,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>156</v>
       </c>
@@ -3261,7 +3478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>157</v>
       </c>
@@ -3275,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -3283,13 +3500,13 @@
         <v>175</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>159</v>
       </c>
@@ -3303,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>163</v>
       </c>
@@ -3333,13 +3550,13 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" customWidth="1"/>
-    <col min="2" max="2" width="21.26953125" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>160</v>
       </c>
